--- a/Data.xlsx
+++ b/Data.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>currency</t>
   </si>
@@ -45,6 +46,9 @@
     <t>Crypto_Total_Spent_USD</t>
   </si>
   <si>
+    <t>DateString</t>
+  </si>
+  <si>
     <t>BCH</t>
   </si>
   <si>
@@ -54,12 +58,36 @@
     <t>0BCH</t>
   </si>
   <si>
+    <t>09/01/2022 16:29:49</t>
+  </si>
+  <si>
     <t>BSV</t>
   </si>
   <si>
     <t>0BSV</t>
   </si>
   <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>6.64875032BTC</t>
+  </si>
+  <si>
+    <t>132,887.38USD</t>
+  </si>
+  <si>
+    <t>15,834.54076217BTC</t>
+  </si>
+  <si>
+    <t>499,749,596.61USD</t>
+  </si>
+  <si>
+    <t>15,827.89201185BTC</t>
+  </si>
+  <si>
+    <t>499,518,069.38USD</t>
+  </si>
+  <si>
     <t>GRS</t>
   </si>
   <si>
@@ -78,28 +106,34 @@
     <t>944,607.54USD</t>
   </si>
   <si>
+    <t>09/01/2022 16:30:58</t>
+  </si>
+  <si>
     <t>Ethereum</t>
   </si>
   <si>
     <t>0x7ecec863383fba1fd5a1bfe852d2382c2a73ee21</t>
   </si>
   <si>
-    <t>0.203058268947584092ETH</t>
-  </si>
-  <si>
-    <t>323.54USD</t>
+    <t>0.201418565589836123ETH</t>
+  </si>
+  <si>
+    <t>314.82USD</t>
   </si>
   <si>
     <t>12,692.660489ETH</t>
   </si>
   <si>
-    <t>34,432,067.47USD</t>
+    <t>34,396,963.78USD</t>
   </si>
   <si>
     <t>12,688.843909ETH</t>
   </si>
   <si>
-    <t>34,425,098.06USD</t>
+    <t>34,390,046.50USD</t>
+  </si>
+  <si>
+    <t>09/01/2022 16:33:07</t>
   </si>
   <si>
     <t>0xc7cb7ee4ba9dfd53073ce16028f5b80d4eaf1991</t>
@@ -108,19 +142,22 @@
     <t>160.004041103006891668ETH</t>
   </si>
   <si>
-    <t>256,249.67USD</t>
+    <t>250,084.72USD</t>
   </si>
   <si>
     <t>7,575.228532ETH</t>
   </si>
   <si>
-    <t>23,278,049.67USD</t>
+    <t>23,280,401.14USD</t>
   </si>
   <si>
     <t>7,414.695849ETH</t>
   </si>
   <si>
-    <t>23,182,251.92USD</t>
+    <t>23,197,703.73USD</t>
+  </si>
+  <si>
+    <t>09/01/2022 16:35:32</t>
   </si>
   <si>
     <t>0x16e6ecc20ddcbd342d65d16dbbdb114493c86f9e</t>
@@ -129,7 +166,7 @@
     <t>1.72878252ETH</t>
   </si>
   <si>
-    <t>2,768.68USD</t>
+    <t>2,702.07USD</t>
   </si>
   <si>
     <t>4.317184ETH</t>
@@ -144,7 +181,7 @@
     <t>6,336.87USD</t>
   </si>
   <si>
-    <t>2,754.37USD</t>
+    <t>09/01/2022 16:38:10</t>
   </si>
   <si>
     <t>Dogecoin</t>
@@ -153,13 +190,34 @@
     <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG7</t>
   </si>
   <si>
+    <t>6,420.00DOGE</t>
+  </si>
+  <si>
+    <t>393.34USD</t>
+  </si>
+  <si>
+    <t>1,151,510.00DOGE</t>
+  </si>
+  <si>
+    <t>306,998.06USD</t>
+  </si>
+  <si>
+    <t>1,145,090.00DOGE</t>
+  </si>
+  <si>
+    <t>288,545.85USD</t>
+  </si>
+  <si>
+    <t>09/01/2022 16:44:25</t>
+  </si>
+  <si>
+    <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG9</t>
+  </si>
+  <si>
     <t>0DOGE</t>
   </si>
   <si>
-    <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG8</t>
-  </si>
-  <si>
-    <t>DRmgZSqSaR2PTGaQ5K5TqydPiS1WTqbgG9</t>
+    <t>09/01/2022 16:45:23</t>
   </si>
 </sst>
 </file>
@@ -499,25 +557,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14 B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,317 +599,382 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10 B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
